--- a/DB/disease_details.xlsx
+++ b/DB/disease_details.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E004A-4A8F-4336-898F-0409E9E4F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>Disease Name</t>
   </si>
@@ -31,139 +38,364 @@
     <t>Symptoms</t>
   </si>
   <si>
-    <t>Treatment / Control Measures</t>
-  </si>
-  <si>
-    <t>Chemical Treatment (if applicable)</t>
-  </si>
-  <si>
-    <t>Bacterial Panicle Blight</t>
+    <t>Treatment/Control</t>
+  </si>
+  <si>
+    <t>Chemical Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate sheath </t>
+  </si>
+  <si>
+    <t>Rhizoctonia oryzae-sativae</t>
+  </si>
+  <si>
+    <t>Irregular spots on sheath, later coalesce</t>
+  </si>
+  <si>
+    <t>Crop rotation, field sanitation</t>
+  </si>
+  <si>
+    <t>Propiconazole, Tebuconazole</t>
+  </si>
+  <si>
+    <t>Bacterial leaf blight</t>
+  </si>
+  <si>
+    <t>Xanthomonas oryzae pv. oryzae</t>
+  </si>
+  <si>
+    <t>Yellowish water-soaked lesions on leaves</t>
+  </si>
+  <si>
+    <t>Resistant varieties, copper-based bactericides</t>
+  </si>
+  <si>
+    <t>Copper oxychloride, Streptomycin</t>
+  </si>
+  <si>
+    <t>Bacterial leaf streak</t>
+  </si>
+  <si>
+    <t>Xanthomonas oryzae pv. oryzicola</t>
+  </si>
+  <si>
+    <t>Thin yellow streaks on leaves</t>
+  </si>
+  <si>
+    <t>Resistant varieties, avoid excessive nitrogen</t>
+  </si>
+  <si>
+    <t>Copper hydroxide, Streptomycin</t>
   </si>
   <si>
     <t>Blast</t>
   </si>
   <si>
-    <t>Brown Spot</t>
-  </si>
-  <si>
-    <t>Dead Heart</t>
-  </si>
-  <si>
-    <t>Downy Mildew</t>
-  </si>
-  <si>
-    <t>Hispa</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Tungro</t>
-  </si>
-  <si>
-    <t>Burkholderia glumae</t>
-  </si>
-  <si>
     <t>Magnaporthe oryzae</t>
   </si>
   <si>
+    <t>Spindle-shaped lesions with gray centers</t>
+  </si>
+  <si>
+    <t>Use resistant varieties, fungicides</t>
+  </si>
+  <si>
+    <t>Tricyclazole, Isoprothiolane</t>
+  </si>
+  <si>
+    <t>Brown spot</t>
+  </si>
+  <si>
     <t>Cochliobolus miyabeanus</t>
   </si>
   <si>
-    <t>Scirpophaga incertulas</t>
-  </si>
-  <si>
-    <t>Peronosclerospora spp.</t>
-  </si>
-  <si>
-    <t>Dicladispa armigera</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Rice Tungro Virus (RTV)</t>
-  </si>
-  <si>
-    <t>Leaf blight, grain discoloration, plant stunting.</t>
-  </si>
-  <si>
-    <t>Leaf lesions, white to gray centers, severe plant damage.</t>
-  </si>
-  <si>
-    <t>Brown necrotic spots on leaves, reduced yield.</t>
-  </si>
-  <si>
-    <t>Drying and wilting of central shoot, dead tillers.</t>
-  </si>
-  <si>
-    <t>Yellowing leaves, stunted growth, white mold.</t>
-  </si>
-  <si>
-    <t>Irregular white patches on leaves, leaf scraping damage.</t>
-  </si>
-  <si>
-    <t>No symptoms (healthy plants).</t>
-  </si>
-  <si>
-    <t>Yellow-orange discoloration, stunted growth, reduced tillering.</t>
-  </si>
-  <si>
-    <t>Use resistant rice varieties, proper field sanitation, avoid excessive nitrogen fertilization.</t>
-  </si>
-  <si>
-    <t>Use blast-resistant varieties, apply balanced fertilizers, avoid excessive nitrogen.</t>
-  </si>
-  <si>
-    <t>Improve soil fertility, use resistant varieties, apply fungicides if necessary.</t>
-  </si>
-  <si>
-    <t>Control stem borer infestation using biological or chemical methods.</t>
-  </si>
-  <si>
-    <t>Use resistant varieties, ensure proper drainage, apply fungicides if needed.</t>
-  </si>
-  <si>
-    <t>Use mechanical control methods, apply insecticides if infestation is severe.</t>
-  </si>
-  <si>
-    <t>No treatment required (assumed to be healthy plants).</t>
-  </si>
-  <si>
-    <t>Use tungro-resistant varieties, control vector (leafhoppers) using insecticides.</t>
-  </si>
-  <si>
-    <t>Copper-based bactericides, Streptomycin sulfate.</t>
-  </si>
-  <si>
-    <t>Tricyclazole, Isoprothiolane.</t>
-  </si>
-  <si>
-    <t>Mancozeb, Propiconazole.</t>
-  </si>
-  <si>
-    <t>Chlorantraniliprole, Lambda-cyhalothrin.</t>
-  </si>
-  <si>
-    <t>Metalaxyl, Ridomil Gold.</t>
-  </si>
-  <si>
-    <t>Chlorpyrifos, Cypermethrin.</t>
-  </si>
-  <si>
-    <t>Imidacloprid, Buprofezin for vector control.</t>
+    <t>Brown circular to oval spots on leaves</t>
+  </si>
+  <si>
+    <t>Balanced fertilization, fungicides</t>
+  </si>
+  <si>
+    <t>Mancozeb, Carbendazim</t>
+  </si>
+  <si>
+    <t>Eye spot</t>
+  </si>
+  <si>
+    <t>Dreschlera sp.</t>
+  </si>
+  <si>
+    <t>Small circular lesions with eye-like appearance</t>
+  </si>
+  <si>
+    <t>Use clean seeds, fungicides</t>
+  </si>
+  <si>
+    <t>Carbendazim, Mancozeb</t>
+  </si>
+  <si>
+    <t>False smut</t>
+  </si>
+  <si>
+    <t>Ustilaginoidea virens</t>
+  </si>
+  <si>
+    <t>Greenish spore balls on spikelets</t>
+  </si>
+  <si>
+    <t>Use resistant varieties, fungicide sprays</t>
+  </si>
+  <si>
+    <t>Kernel smut</t>
+  </si>
+  <si>
+    <t>Tilletia barclayana</t>
+  </si>
+  <si>
+    <t>Black spore masses on grains</t>
+  </si>
+  <si>
+    <t>Use clean seeds, treat with fungicides</t>
+  </si>
+  <si>
+    <t>Carbendazim, Thiram</t>
+  </si>
+  <si>
+    <t>Leaf smut</t>
+  </si>
+  <si>
+    <t>Entyloma oryzae</t>
+  </si>
+  <si>
+    <t>Black streaks or patches on leaves</t>
+  </si>
+  <si>
+    <t>Seed treatment, remove infected debris</t>
+  </si>
+  <si>
+    <t>Thiram, Captan</t>
+  </si>
+  <si>
+    <t>Narrow brown leaf spot</t>
+  </si>
+  <si>
+    <t>Cercospora janseana</t>
+  </si>
+  <si>
+    <t>Narrow brown lesions on leaves</t>
+  </si>
+  <si>
+    <t>Balanced fertilization, resistant varieties</t>
+  </si>
+  <si>
+    <t>Mancozeb, Azoxystrobin</t>
+  </si>
+  <si>
+    <t>Sheath rot</t>
+  </si>
+  <si>
+    <t>Sarocladium oryzae</t>
+  </si>
+  <si>
+    <t>Brown lesions on sheath, rotting of tissues</t>
+  </si>
+  <si>
+    <t>Use clean seeds, fungicide sprays</t>
+  </si>
+  <si>
+    <t>Carbendazim, Propiconazole</t>
+  </si>
+  <si>
+    <t>Sheath spot</t>
+  </si>
+  <si>
+    <t>Rhizoctonia oryzae</t>
+  </si>
+  <si>
+    <t>Oval lesions on sheath with gray centers</t>
+  </si>
+  <si>
+    <t>Avoid excessive nitrogen, fungicides</t>
+  </si>
+  <si>
+    <t>Tebuconazole, Hexaconazole</t>
+  </si>
+  <si>
+    <t>Tungro1</t>
+  </si>
+  <si>
+    <t>Rice tungro bacilliform &amp; spherical viruses</t>
+  </si>
+  <si>
+    <t>Yellowing &amp; stunting of plants</t>
+  </si>
+  <si>
+    <t>Vector control (leafhoppers), resistant varieties</t>
+  </si>
+  <si>
+    <t>Imidacloprid, Thiamethoxam</t>
+  </si>
+  <si>
+    <t>flag leaf sheath</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Abnormal development of flag leaf sheath</t>
+  </si>
+  <si>
+    <t>Unknown control measures</t>
+  </si>
+  <si>
+    <t>No known treatment</t>
+  </si>
+  <si>
+    <t>foot rot</t>
+  </si>
+  <si>
+    <t>Fusarium moniliforme</t>
+  </si>
+  <si>
+    <t>Wilting and rotting at base of stem</t>
+  </si>
+  <si>
+    <t>Seed treatment, fungicides</t>
+  </si>
+  <si>
+    <t>Thiram, Carbendazim</t>
+  </si>
+  <si>
+    <t>grassy stunt virus</t>
+  </si>
+  <si>
+    <t>Rice grassy stunt virus</t>
+  </si>
+  <si>
+    <t>Stunted plants with excessive tillering</t>
+  </si>
+  <si>
+    <t>Vector control (planthoppers)</t>
+  </si>
+  <si>
+    <t>Imidacloprid, Fipronil</t>
+  </si>
+  <si>
+    <t>leaf scald</t>
+  </si>
+  <si>
+    <t>Microdochium oryzae</t>
+  </si>
+  <si>
+    <t>Water-soaked lesions turn to reddish-brown</t>
+  </si>
+  <si>
+    <t>Fungicide sprays, resistant varieties</t>
+  </si>
+  <si>
+    <t>Tricyclazole, Azoxystrobin</t>
+  </si>
+  <si>
+    <t>pecky rice kernel spotting</t>
+  </si>
+  <si>
+    <t>Fungal/Bacterial complex</t>
+  </si>
+  <si>
+    <t>Discolored grains with foul smell</t>
+  </si>
+  <si>
+    <t>Copper-based fungicides</t>
+  </si>
+  <si>
+    <t>powdery mildew</t>
+  </si>
+  <si>
+    <t>Erysiphe graminis</t>
+  </si>
+  <si>
+    <t>White powdery patches on leaves</t>
+  </si>
+  <si>
+    <t>Sulfur-based fungicides</t>
+  </si>
+  <si>
+    <t>ragged stunt virus</t>
+  </si>
+  <si>
+    <t>Rice ragged stunt virus</t>
+  </si>
+  <si>
+    <t>Irregular leaf twisting, stunted growth</t>
+  </si>
+  <si>
+    <t>Fipronil, Imidacloprid</t>
+  </si>
+  <si>
+    <t>sheath blight</t>
+  </si>
+  <si>
+    <t>Rhizoctonia solani</t>
+  </si>
+  <si>
+    <t>Grayish-green lesions on sheath, later turn brown</t>
+  </si>
+  <si>
+    <t>sheath brown rot</t>
+  </si>
+  <si>
+    <t>Pseudomonas fuscovaginae</t>
+  </si>
+  <si>
+    <t>Brown necrotic lesions on sheath</t>
+  </si>
+  <si>
+    <t>Resistant varieties, fungicides</t>
+  </si>
+  <si>
+    <t>Copper oxychloride, Mancozeb</t>
+  </si>
+  <si>
+    <t>yellow mottle1</t>
+  </si>
+  <si>
+    <t>Rice yellow mottle virus</t>
+  </si>
+  <si>
+    <t>Yellow mosaic patterns on leaves</t>
+  </si>
+  <si>
+    <t>crown sheath rot</t>
+  </si>
+  <si>
+    <t>Fusarium spp.</t>
+  </si>
+  <si>
+    <t>Sheath rotting with white fungal growth</t>
+  </si>
+  <si>
+    <t>Field sanitation, fungicide sprays</t>
+  </si>
+  <si>
+    <t>Hexaconazole, Carbendazim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,19 +403,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,9 +768,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -216,26 +1020,70 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +1121,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -307,7 +1155,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,10 +1189,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,26 +1359,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" customWidth="1"/>
-    <col min="4" max="4" width="75.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="35.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="32.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="29.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,143 +1397,416 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DB/disease_details.xlsx
+++ b/DB/disease_details.xlsx
@@ -44,7 +44,7 @@
     <t>Chemical Treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggregate sheath </t>
+    <t>Aggregate sheath</t>
   </si>
   <si>
     <t>Rhizoctonia oryzae-sativae</t>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
